--- a/data/formatted/basicdata201415.xlsx
+++ b/data/formatted/basicdata201415.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA464F2-F31D-454B-8940-E77DF9DD3970}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783DCFA1-6CED-4B05-B245-5D749303E12E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="2420" windowWidth="11520" windowHeight="6000" xr2:uid="{CB8C87FC-B25D-4D77-9EE1-0733CCAD81A3}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{CB8C87FC-B25D-4D77-9EE1-0733CCAD81A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata201415.xlsx
+++ b/data/formatted/basicdata201415.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783DCFA1-6CED-4B05-B245-5D749303E12E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8D814B-0E8C-4BC8-A75D-61A158837508}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{CB8C87FC-B25D-4D77-9EE1-0733CCAD81A3}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{CB8C87FC-B25D-4D77-9EE1-0733CCAD81A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata201415.xlsx
+++ b/data/formatted/basicdata201415.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8D814B-0E8C-4BC8-A75D-61A158837508}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924F35B3-D6B0-44BB-8637-9C90EABF3F88}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{CB8C87FC-B25D-4D77-9EE1-0733CCAD81A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CB8C87FC-B25D-4D77-9EE1-0733CCAD81A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,208 +114,208 @@
     <t>PersonalFouls</t>
   </si>
   <si>
-    <t>Alabama-Birmingham NCAA</t>
-  </si>
-  <si>
-    <t>Albany (NY) NCAA</t>
-  </si>
-  <si>
-    <t>Arizona NCAA</t>
-  </si>
-  <si>
-    <t>Arkansas NCAA</t>
-  </si>
-  <si>
-    <t>Baylor NCAA</t>
-  </si>
-  <si>
-    <t>Belmont NCAA</t>
-  </si>
-  <si>
-    <t>Boise State NCAA</t>
-  </si>
-  <si>
-    <t>Brigham Young NCAA</t>
-  </si>
-  <si>
-    <t>Buffalo NCAA</t>
-  </si>
-  <si>
-    <t>Butler NCAA</t>
-  </si>
-  <si>
-    <t>UC-Irvine NCAA</t>
-  </si>
-  <si>
-    <t>Cincinnati NCAA</t>
-  </si>
-  <si>
-    <t>Coastal Carolina NCAA</t>
-  </si>
-  <si>
-    <t>Davidson NCAA</t>
-  </si>
-  <si>
-    <t>Dayton NCAA</t>
-  </si>
-  <si>
-    <t>Duke NCAA</t>
-  </si>
-  <si>
-    <t>Eastern Washington NCAA</t>
-  </si>
-  <si>
-    <t>Georgetown NCAA</t>
-  </si>
-  <si>
-    <t>Georgia State NCAA</t>
-  </si>
-  <si>
-    <t>Georgia NCAA</t>
-  </si>
-  <si>
-    <t>Gonzaga NCAA</t>
-  </si>
-  <si>
-    <t>Hampton NCAA</t>
-  </si>
-  <si>
-    <t>Harvard NCAA</t>
-  </si>
-  <si>
-    <t>Indiana NCAA</t>
-  </si>
-  <si>
-    <t>Iowa State NCAA</t>
-  </si>
-  <si>
-    <t>Iowa NCAA</t>
-  </si>
-  <si>
-    <t>Kansas NCAA</t>
-  </si>
-  <si>
-    <t>Kentucky NCAA</t>
-  </si>
-  <si>
-    <t>Lafayette NCAA</t>
-  </si>
-  <si>
-    <t>Louisiana State NCAA</t>
-  </si>
-  <si>
-    <t>Louisville NCAA</t>
-  </si>
-  <si>
-    <t>Manhattan NCAA</t>
-  </si>
-  <si>
-    <t>Maryland NCAA</t>
-  </si>
-  <si>
-    <t>Michigan State NCAA</t>
-  </si>
-  <si>
-    <t>Mississippi NCAA</t>
-  </si>
-  <si>
-    <t>New Mexico State NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina State NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina NCAA</t>
-  </si>
-  <si>
-    <t>North Dakota State NCAA</t>
-  </si>
-  <si>
-    <t>North Florida NCAA</t>
-  </si>
-  <si>
-    <t>Northeastern NCAA</t>
-  </si>
-  <si>
-    <t>Northern Iowa NCAA</t>
-  </si>
-  <si>
-    <t>Notre Dame NCAA</t>
-  </si>
-  <si>
-    <t>Ohio State NCAA</t>
-  </si>
-  <si>
-    <t>Oklahoma State NCAA</t>
-  </si>
-  <si>
-    <t>Oklahoma NCAA</t>
-  </si>
-  <si>
-    <t>Oregon NCAA</t>
-  </si>
-  <si>
-    <t>Providence NCAA</t>
-  </si>
-  <si>
-    <t>Purdue NCAA</t>
-  </si>
-  <si>
-    <t>Robert Morris NCAA</t>
-  </si>
-  <si>
-    <t>San Diego State NCAA</t>
-  </si>
-  <si>
-    <t>Southern Methodist NCAA</t>
-  </si>
-  <si>
-    <t>St. John's (NY) NCAA</t>
-  </si>
-  <si>
-    <t>Stephen F. Austin NCAA</t>
-  </si>
-  <si>
-    <t>Texas Southern NCAA</t>
-  </si>
-  <si>
-    <t>Texas NCAA</t>
-  </si>
-  <si>
-    <t>UCLA NCAA</t>
-  </si>
-  <si>
-    <t>Utah NCAA</t>
-  </si>
-  <si>
-    <t>Valparaiso NCAA</t>
-  </si>
-  <si>
-    <t>Villanova NCAA</t>
-  </si>
-  <si>
-    <t>Virginia Commonwealth NCAA</t>
-  </si>
-  <si>
-    <t>Virginia NCAA</t>
-  </si>
-  <si>
-    <t>West Virginia NCAA</t>
-  </si>
-  <si>
-    <t>Wichita State NCAA</t>
-  </si>
-  <si>
-    <t>Wisconsin NCAA</t>
-  </si>
-  <si>
-    <t>Wofford NCAA</t>
-  </si>
-  <si>
-    <t>Wyoming NCAA</t>
-  </si>
-  <si>
-    <t>Xavier NCAA</t>
+    <t>Alabama-Birmingham</t>
+  </si>
+  <si>
+    <t>Albany (NY)</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Belmont</t>
+  </si>
+  <si>
+    <t>Boise State</t>
+  </si>
+  <si>
+    <t>Brigham Young</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Butler</t>
+  </si>
+  <si>
+    <t>UC-Irvine</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Coastal Carolina</t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>Dayton</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Eastern Washington</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>Georgia State</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>Harvard</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Lafayette</t>
+  </si>
+  <si>
+    <t>Louisiana State</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Manhattan</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>New Mexico State</t>
+  </si>
+  <si>
+    <t>North Carolina State</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>North Dakota State</t>
+  </si>
+  <si>
+    <t>North Florida</t>
+  </si>
+  <si>
+    <t>Northeastern</t>
+  </si>
+  <si>
+    <t>Northern Iowa</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>Oklahoma State</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Providence</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Robert Morris</t>
+  </si>
+  <si>
+    <t>San Diego State</t>
+  </si>
+  <si>
+    <t>Southern Methodist</t>
+  </si>
+  <si>
+    <t>St. John's (NY)</t>
+  </si>
+  <si>
+    <t>Stephen F. Austin</t>
+  </si>
+  <si>
+    <t>Texas Southern</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Valparaiso</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Virginia Commonwealth</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Wichita State</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wofford</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Xavier</t>
   </si>
 </sst>
 </file>
